--- a/docs/Datensatzdefinition_InterestValidator.xlsx
+++ b/docs/Datensatzdefinition_InterestValidator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasholzer/Repositories/Interest Validator/Sample-Data-Generator/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1EDDEC-25A9-2D4B-A978-E763B286A779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0CE030-2572-FD4F-AB2E-65907ECF52D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datensatzdefinition DE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="122">
   <si>
     <t>Unicode String</t>
   </si>
@@ -381,15 +381,6 @@
     <t>DD.MM.YY</t>
   </si>
   <si>
-    <t>A, R, E</t>
-  </si>
-  <si>
-    <t>Nach Möglichkeit folgende Kennzeichnung: A annuitätisch, R Ratentilgung, E endfällig</t>
-  </si>
-  <si>
-    <t>Werden nach derzeitigem Wechselkurs Umgerechnet, siehe (4)</t>
-  </si>
-  <si>
     <t>(4): TBD, erstmal nur EUR</t>
   </si>
   <si>
@@ -400,6 +391,15 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>A, I, T</t>
+  </si>
+  <si>
+    <t>Folgende Kennzeichnung: A annuitätisch, I Ratentilgung, T endfällig</t>
+  </si>
+  <si>
+    <t>Währungscode nach ISO 4217. Werte werden nach derzeitigem Wechselkurs Umgerechnet, siehe (4)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -927,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1290,11 +1290,11 @@
         <v>68</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1418,9 +1418,7 @@
         <v>47</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" s="10"/>
       <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1550,9 +1548,7 @@
         <v>61</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1570,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
@@ -1727,7 +1723,7 @@
         <v>43115</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>76</v>
@@ -1780,7 +1776,7 @@
         <v>43130</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>76</v>
@@ -1833,7 +1829,7 @@
         <v>43115</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>76</v>
@@ -1886,7 +1882,7 @@
         <v>43115</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>76</v>
@@ -1939,7 +1935,7 @@
         <v>43115</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>76</v>
@@ -1992,7 +1988,7 @@
         <v>43115</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
@@ -2045,7 +2041,7 @@
         <v>43115</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
@@ -2098,7 +2094,7 @@
         <v>46024</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
@@ -2151,7 +2147,7 @@
         <v>43115</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>76</v>
@@ -2204,7 +2200,7 @@
         <v>43115</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>110</v>
@@ -2257,7 +2253,7 @@
         <v>43115</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>110</v>
@@ -2310,7 +2306,7 @@
         <v>46501</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>111</v>
